--- a/ohio2016/inputData/J. Beaulieu Chlorophyll 2016/chlorophyllVolume2016.xlsx
+++ b/ohio2016/inputData/J. Beaulieu Chlorophyll 2016/chlorophyllVolume2016.xlsx
@@ -120,9 +120,6 @@
     <t>07132016.PTC.S-04.0.1.UNK</t>
   </si>
   <si>
-    <t>07152016.BWL.CAL1.0.UNK</t>
-  </si>
-  <si>
     <t>06242016.BWL.CAL1.UNK</t>
   </si>
   <si>
@@ -304,9 +301,6 @@
     <t>08092016.CRR.SU07.67'.UNK</t>
   </si>
   <si>
-    <t>081216CAL1</t>
-  </si>
-  <si>
     <t>08182016.BVR.SU7.82'.UNK</t>
   </si>
   <si>
@@ -319,19 +313,25 @@
     <t>09012016.BVR.U14.6'.UNK</t>
   </si>
   <si>
-    <t>090216CAL1</t>
-  </si>
-  <si>
     <t>09092016.RRK.0.1.UNK</t>
   </si>
   <si>
     <t>09122016CAL</t>
   </si>
   <si>
-    <t>09152016.DIL.S06.13.5.UNK</t>
-  </si>
-  <si>
     <t>07192016.HAR.EFL-1.0.1.DUP</t>
+  </si>
+  <si>
+    <t>07152016.BWL.CAL1.0.1.UNK</t>
+  </si>
+  <si>
+    <t>09022016CAL1</t>
+  </si>
+  <si>
+    <t>08122016.CAL1</t>
+  </si>
+  <si>
+    <t>09152016.DIL.S06.13.5'.UNK</t>
   </si>
 </sst>
 </file>
@@ -979,7 +979,7 @@
         <v>42571</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2">
         <v>340</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="2">
         <v>345</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2">
         <v>415</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2">
         <v>426</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="2">
         <v>355</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="2">
         <v>500</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="2">
         <v>289</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="2">
         <v>330</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="2">
         <v>292</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="2">
         <v>245</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2">
         <v>404</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2">
         <v>298</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2">
         <v>450</v>
@@ -1086,7 +1086,7 @@
         <v>42573</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2">
         <v>342</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2">
         <v>350</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2">
         <v>474</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="2">
         <v>454</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="2">
         <v>348</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="2">
         <v>382</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2">
         <v>357</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2">
         <v>385</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2">
         <v>349</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2">
         <v>287</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2">
         <v>212</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2">
         <v>260</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2">
         <v>450</v>
@@ -1193,7 +1193,7 @@
         <v>42585</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2">
         <v>950</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2">
         <v>500</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2">
         <v>500</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2">
         <v>525</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2">
         <v>525</v>
@@ -1233,18 +1233,18 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2">
         <v>525</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2">
         <v>400</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2">
         <v>500</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2">
         <v>400</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2">
         <v>450</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2">
         <v>375</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2">
         <v>475</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2">
         <v>600</v>
@@ -1308,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1357,7 +1357,7 @@
         <v>42566</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2">
         <v>350</v>
@@ -1368,7 +1368,7 @@
         <v>42545</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2">
         <v>500</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2">
         <v>360</v>
@@ -1387,7 +1387,7 @@
         <v>42559</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2">
         <v>260</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2">
         <v>180</v>
@@ -1406,7 +1406,7 @@
         <v>42563</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2">
         <v>350</v>
@@ -1417,7 +1417,7 @@
         <v>42578</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2">
         <v>307</v>
@@ -1426,7 +1426,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2">
         <v>500</v>
@@ -1437,7 +1437,7 @@
         <v>42573</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2">
         <v>445</v>
@@ -1446,7 +1446,7 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2">
         <v>280</v>
@@ -1457,7 +1457,7 @@
         <v>42584</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2">
         <v>500</v>
@@ -1468,7 +1468,7 @@
         <v>42587</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2">
         <v>184</v>
@@ -1477,7 +1477,7 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2">
         <v>450</v>
@@ -1486,7 +1486,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2">
         <v>650</v>
@@ -1495,7 +1495,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2">
         <v>1000</v>
@@ -1506,7 +1506,7 @@
         <v>42594</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C19" s="2">
         <v>500</v>
@@ -1517,7 +1517,7 @@
         <v>42601</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2">
         <v>900</v>
@@ -1528,7 +1528,7 @@
         <v>42607</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2">
         <v>655</v>
@@ -1537,7 +1537,7 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2">
         <v>310</v>
@@ -1548,7 +1548,7 @@
         <v>42615</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C23" s="2">
         <v>351</v>
@@ -1557,7 +1557,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2">
         <v>372</v>
@@ -1568,7 +1568,7 @@
         <v>42622</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C25" s="2">
         <v>350</v>
@@ -1579,7 +1579,7 @@
         <v>42625</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C26" s="2">
         <v>500</v>
@@ -1590,7 +1590,7 @@
         <v>42629</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" s="2">
         <v>450</v>
@@ -1602,20 +1602,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CD5EBB2B15234409B9923509B74332A" ma:contentTypeVersion="25" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a247d700d99e278660b203a6fbc1efb1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns4="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns5="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns6="f15e4d92-675c-4df7-a5c5-11f59c7da362" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4566cf8bc9d79c21545f1c27819f29a6" ns1:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1997,6 +1983,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2049,22 +2049,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{628BC3E1-CD37-4629-990F-35B4BE07EB46}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA24CED-F748-495F-B3CE-4D78DF0735B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{353A104D-917D-4834-B80F-BCDA2C0DFA5A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2082,6 +2066,22 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA24CED-F748-495F-B3CE-4D78DF0735B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{628BC3E1-CD37-4629-990F-35B4BE07EB46}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ohio2016/inputData/J. Beaulieu Chlorophyll 2016/chlorophyllVolume2016.xlsx
+++ b/ohio2016/inputData/J. Beaulieu Chlorophyll 2016/chlorophyllVolume2016.xlsx
@@ -210,12 +210,6 @@
     <t>07212016.HAR.NA.NA.BLK</t>
   </si>
   <si>
-    <t>07262016.WKA.SU01.15.UNK</t>
-  </si>
-  <si>
-    <t>07262016.WKA.SU01.3.1.UNK</t>
-  </si>
-  <si>
     <t>07212016.AVL.S-31.0.1.UNK</t>
   </si>
   <si>
@@ -307,9 +301,6 @@
     <t>08242016.BHR.SU31.0.1.UNK</t>
   </si>
   <si>
-    <t>082516CAL</t>
-  </si>
-  <si>
     <t>09012016.BVR.U14.6'.UNK</t>
   </si>
   <si>
@@ -332,6 +323,15 @@
   </si>
   <si>
     <t>09152016.DIL.S06.13.5'.UNK</t>
+  </si>
+  <si>
+    <t>07262016.WKA.SU-30.3.1.UNK</t>
+  </si>
+  <si>
+    <t>07262016.WKA.SU-01.15.UNK</t>
+  </si>
+  <si>
+    <t>08252016CAL</t>
   </si>
 </sst>
 </file>
@@ -979,7 +979,7 @@
         <v>42571</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C28" s="2">
         <v>340</v>
@@ -1193,7 +1193,7 @@
         <v>42585</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2">
         <v>950</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2">
         <v>500</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2">
         <v>500</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2">
         <v>525</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2">
         <v>525</v>
@@ -1233,18 +1233,18 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2">
         <v>525</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2">
         <v>400</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2">
         <v>500</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2">
         <v>400</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2">
         <v>450</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2">
         <v>375</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2">
         <v>475</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="2">
         <v>600</v>
@@ -1308,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1357,7 +1357,7 @@
         <v>42566</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2">
         <v>350</v>
@@ -1417,7 +1417,7 @@
         <v>42578</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2">
         <v>307</v>
@@ -1426,7 +1426,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C11" s="2">
         <v>500</v>
@@ -1437,7 +1437,7 @@
         <v>42573</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2">
         <v>445</v>
@@ -1446,7 +1446,7 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2">
         <v>280</v>
@@ -1457,7 +1457,7 @@
         <v>42584</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14" s="2">
         <v>500</v>
@@ -1468,7 +1468,7 @@
         <v>42587</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C15" s="2">
         <v>184</v>
@@ -1477,7 +1477,7 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16" s="2">
         <v>450</v>
@@ -1486,7 +1486,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2">
         <v>650</v>
@@ -1495,7 +1495,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C18" s="2">
         <v>1000</v>
@@ -1506,7 +1506,7 @@
         <v>42594</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2">
         <v>500</v>
@@ -1517,7 +1517,7 @@
         <v>42601</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2">
         <v>900</v>
@@ -1528,7 +1528,7 @@
         <v>42607</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2">
         <v>655</v>
@@ -1537,7 +1537,7 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C22" s="2">
         <v>310</v>
@@ -1548,7 +1548,7 @@
         <v>42615</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2">
         <v>351</v>
@@ -1557,7 +1557,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2">
         <v>372</v>
@@ -1568,7 +1568,7 @@
         <v>42622</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C25" s="2">
         <v>350</v>
@@ -1579,7 +1579,7 @@
         <v>42625</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2">
         <v>500</v>
@@ -1590,7 +1590,7 @@
         <v>42629</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C27" s="2">
         <v>450</v>
@@ -1602,6 +1602,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CD5EBB2B15234409B9923509B74332A" ma:contentTypeVersion="25" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a247d700d99e278660b203a6fbc1efb1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns4="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns5="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns6="f15e4d92-675c-4df7-a5c5-11f59c7da362" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4566cf8bc9d79c21545f1c27819f29a6" ns1:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1983,20 +1997,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2049,6 +2049,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{628BC3E1-CD37-4629-990F-35B4BE07EB46}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA24CED-F748-495F-B3CE-4D78DF0735B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{353A104D-917D-4834-B80F-BCDA2C0DFA5A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2070,37 +2086,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA24CED-F748-495F-B3CE-4D78DF0735B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{628BC3E1-CD37-4629-990F-35B4BE07EB46}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AC0819D-BF57-490E-9A05-033D9796C508}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="f15e4d92-675c-4df7-a5c5-11f59c7da362"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f15e4d92-675c-4df7-a5c5-11f59c7da362"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
